--- a/src/main/resources/data_KCB_XML/errors_KCB.xlsx
+++ b/src/main/resources/data_KCB_XML/errors_KCB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="97">
   <si>
     <t>MaLK</t>
   </si>
@@ -44,70 +44,265 @@
     <t>Chi tiết lỗi</t>
   </si>
   <si>
-    <t>20251022071034170</t>
-  </si>
-  <si>
-    <t>2510019670</t>
+    <t>20251024073759160</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Nady-spasmyl</t>
-  </si>
-  <si>
-    <t>2025-10-22 07:26</t>
-  </si>
-  <si>
-    <t>⛔ Thời gian kê thuốc (22/10/2025 07:26) phải sau khi có kết quả DVKT (22/10/2025 07:28)</t>
-  </si>
-  <si>
-    <t>20251022084649677</t>
-  </si>
-  <si>
-    <t>23.0244.1544</t>
-  </si>
-  <si>
-    <t>Phản ứng crp</t>
+    <t>18.0004.0001</t>
+  </si>
+  <si>
+    <t>Siêu âm hạch vùng cổ</t>
+  </si>
+  <si>
+    <t>000139/BTH-CCHN</t>
+  </si>
+  <si>
+    <t>001070/TB-CCHN</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:47</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:49</t>
+  </si>
+  <si>
+    <t>2025-10-24 08:00</t>
+  </si>
+  <si>
+    <t>Thời gian DV Siêu âm hạch vùng cổ lệch 11p, chuẩn 15-30</t>
+  </si>
+  <si>
+    <t>20251024072706350</t>
+  </si>
+  <si>
+    <t>02.0085.1778</t>
+  </si>
+  <si>
+    <t>Điện tim thường</t>
   </si>
   <si>
     <t>0034449/HCM-CCHN</t>
   </si>
   <si>
+    <t>000003/LA-GPHN</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:33</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:35</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:38</t>
+  </si>
+  <si>
+    <t>Thời gian DV Điện tim thường lệch 3p, chuẩn 4-8</t>
+  </si>
+  <si>
+    <t>20251024074132443</t>
+  </si>
+  <si>
+    <t>22.0120.1370</t>
+  </si>
+  <si>
+    <t>Tổng phân tích tế bào máu ngoại vi (bằng máy đếm tổng trở)</t>
+  </si>
+  <si>
     <t>008003/BD-CCHN</t>
   </si>
   <si>
-    <t>2025-10-22 09:55</t>
-  </si>
-  <si>
-    <t>2025-10-22 09:56</t>
-  </si>
-  <si>
-    <t>2025-10-22 10:23</t>
-  </si>
-  <si>
-    <t>Thời gian YL không đồng bộ trong hồ sơ</t>
-  </si>
-  <si>
-    <t>20251022142128577</t>
-  </si>
-  <si>
-    <t>22.0120.1370</t>
-  </si>
-  <si>
-    <t>Tổng phân tích tế bào máu ngoại vi (bằng máy đếm tổng trở)</t>
-  </si>
-  <si>
-    <t>2025-10-22 14:31</t>
-  </si>
-  <si>
-    <t>2025-10-22 14:33</t>
-  </si>
-  <si>
-    <t>2025-10-22 14:55</t>
-  </si>
-  <si>
-    <t>Thời gian DV Tổng phân tích tế bào máu ngoại vi (máy đếm tổng trở) lệch 22p, chuẩn 10-15</t>
+    <t>2025-10-24 07:51</t>
+  </si>
+  <si>
+    <t>Thời gian DV Tổng phân tích tế bào máu ngoại vi (máy đếm tổng trở) lệch 9p, chuẩn 10-15</t>
+  </si>
+  <si>
+    <t>20251024075429360</t>
+  </si>
+  <si>
+    <t>2025-10-24 08:01</t>
+  </si>
+  <si>
+    <t>2025-10-24 08:03</t>
+  </si>
+  <si>
+    <t>2025-10-24 08:06</t>
+  </si>
+  <si>
+    <t>20251024074338080</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:53</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:55</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:58</t>
+  </si>
+  <si>
+    <t>20251024073234383</t>
+  </si>
+  <si>
+    <t>20251024091013580</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:20</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:22</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:32</t>
+  </si>
+  <si>
+    <t>Thời gian DV Siêu âm hạch vùng cổ lệch 10p, chuẩn 15-30</t>
+  </si>
+  <si>
+    <t>20251024072124433</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:41</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:43</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:46</t>
+  </si>
+  <si>
+    <t>20251024072003073</t>
+  </si>
+  <si>
+    <t>2025-10-24 07:36</t>
+  </si>
+  <si>
+    <t>20251024080829573</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:31</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:33</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:36</t>
+  </si>
+  <si>
+    <t>20251024091120130</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:49</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:52</t>
+  </si>
+  <si>
+    <t>2025-10-24 10:01</t>
+  </si>
+  <si>
+    <t>20251024083804170</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:12</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:14</t>
+  </si>
+  <si>
+    <t>2025-10-24 09:17</t>
+  </si>
+  <si>
+    <t>20251024103156580</t>
+  </si>
+  <si>
+    <t>2025-10-24 10:37</t>
+  </si>
+  <si>
+    <t>2025-10-24 10:39</t>
+  </si>
+  <si>
+    <t>2025-10-24 10:49</t>
+  </si>
+  <si>
+    <t>20251024134124870</t>
+  </si>
+  <si>
+    <t>23.0051.1494</t>
+  </si>
+  <si>
+    <t>Định lượng Creatinin (máu)</t>
+  </si>
+  <si>
+    <t>2025-10-24 13:56</t>
+  </si>
+  <si>
+    <t>2025-10-24 13:58</t>
+  </si>
+  <si>
+    <t>2025-10-24 14:51</t>
+  </si>
+  <si>
+    <t>Thời gian DV Định lượng Creatinin (máu) lệch 53p, chuẩn 23-30</t>
+  </si>
+  <si>
+    <t>20251024154854140</t>
+  </si>
+  <si>
+    <t>2025-10-24 15:53</t>
+  </si>
+  <si>
+    <t>2025-10-24 15:55</t>
+  </si>
+  <si>
+    <t>2025-10-24 15:58</t>
+  </si>
+  <si>
+    <t>20251024143916240</t>
+  </si>
+  <si>
+    <t>23.0162.1570</t>
+  </si>
+  <si>
+    <t>Định lượng TSH (Thyroid Stimulating hormone) [Máu]</t>
+  </si>
+  <si>
+    <t>2025-10-24 14:44</t>
+  </si>
+  <si>
+    <t>2025-10-24 15:09</t>
+  </si>
+  <si>
+    <t>2025-10-24 15:23</t>
+  </si>
+  <si>
+    <t>Thời gian DV Định lượng TSH [Máu] lệch 14p, chuẩn 23-30</t>
+  </si>
+  <si>
+    <t>Thời gian THYL không đồng bộ trong hồ sơ</t>
+  </si>
+  <si>
+    <t>20251024164053150</t>
+  </si>
+  <si>
+    <t>18.0015.0001</t>
+  </si>
+  <si>
+    <t>Siêu âm ổ bụng (gan mật, tụy, lách, thận, bàng quang)</t>
+  </si>
+  <si>
+    <t>2025-10-24 16:44</t>
+  </si>
+  <si>
+    <t>2025-10-24 16:46</t>
+  </si>
+  <si>
+    <t>2025-10-24 16:51</t>
+  </si>
+  <si>
+    <t>Thời gian DV Siêu âm ổ bụng (gan mật, tụy, lách, thận, bàng quang) lệch 5p, chuẩn 6-15</t>
   </si>
 </sst>
 </file>
@@ -173,14 +368,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.92578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="17.87109375" customWidth="true" bestFit="true"/>
@@ -188,7 +383,7 @@
     <col min="7" max="7" width="15.11328125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="15.11328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="15.11328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="73.96484375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="72.96484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -237,86 +432,566 @@
         <v>13</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="D8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s" s="2">
+      <c r="I10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s" s="2">
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="D12" t="s" s="0">
         <v>31</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_KCB_XML/errors_KCB.xlsx
+++ b/src/main/resources/data_KCB_XML/errors_KCB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>MaLK</t>
   </si>
@@ -42,6 +42,33 @@
   </si>
   <si>
     <t>Chi tiết lỗi</t>
+  </si>
+  <si>
+    <t>20251101073302227</t>
+  </si>
+  <si>
+    <t>2511020085</t>
+  </si>
+  <si>
+    <t>10.19</t>
+  </si>
+  <si>
+    <t>Khám Ngoại tổng hợp</t>
+  </si>
+  <si>
+    <t>009359/QNA-CCHN</t>
+  </si>
+  <si>
+    <t>2025-11-01 13:50</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2025-11-01 13:54</t>
+  </si>
+  <si>
+    <t>⛔ Bác sĩ Bs.Duy Đạt nghỉ T7, không làm việc vào chỉ định: 202511011350</t>
   </si>
 </sst>
 </file>
@@ -107,22 +134,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.49609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.50390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.83203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.796875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="7.39453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.37109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="16.64453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="16.64453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.11328125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.6171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="7.96875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="9.3046875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.11328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="58.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -157,6 +184,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/data_KCB_XML/errors_KCB.xlsx
+++ b/src/main/resources/data_KCB_XML/errors_KCB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>MaLK</t>
   </si>
@@ -44,31 +44,160 @@
     <t>Chi tiết lỗi</t>
   </si>
   <si>
-    <t>20251101073302227</t>
-  </si>
-  <si>
-    <t>2511020085</t>
-  </si>
-  <si>
-    <t>10.19</t>
-  </si>
-  <si>
-    <t>Khám Ngoại tổng hợp</t>
-  </si>
-  <si>
-    <t>009359/QNA-CCHN</t>
-  </si>
-  <si>
-    <t>2025-11-01 13:50</t>
+    <t>20251116091706633</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-11-01 13:54</t>
-  </si>
-  <si>
-    <t>⛔ Bác sĩ Bs.Duy Đạt nghỉ T7, không làm việc vào chỉ định: 202511011350</t>
+    <t>18.0004.0001</t>
+  </si>
+  <si>
+    <t>Siêu âm hạch vùng cổ</t>
+  </si>
+  <si>
+    <t>0034449/HCM-CCHN</t>
+  </si>
+  <si>
+    <t>001070/TB-CCHN</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:35</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:38</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:50</t>
+  </si>
+  <si>
+    <t>Thời gian DV Siêu âm hạch vùng cổ lệch 12p, chuẩn 15-30</t>
+  </si>
+  <si>
+    <t>20251116091023833</t>
+  </si>
+  <si>
+    <t>2511020695</t>
+  </si>
+  <si>
+    <t>18.0091.0029</t>
+  </si>
+  <si>
+    <t>Chụp X-quang cột sống thắt lưng thẳng nghiêng [số hóa 2 phim]</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:47</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:48</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:57</t>
+  </si>
+  <si>
+    <t>Bác sĩ không có chuyên môn làm DV này</t>
+  </si>
+  <si>
+    <t>20251116090838933</t>
+  </si>
+  <si>
+    <t>2504011397</t>
+  </si>
+  <si>
+    <t>18.0119.0028</t>
+  </si>
+  <si>
+    <t>Chụp X-quang ngực thẳng [số hóa 1 phim]</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:24</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:26</t>
+  </si>
+  <si>
+    <t>20251116090543333</t>
+  </si>
+  <si>
+    <t>2506015040</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:30</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:42</t>
+  </si>
+  <si>
+    <t>20251116090223010</t>
+  </si>
+  <si>
+    <t>2508016756</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:44</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:45</t>
+  </si>
+  <si>
+    <t>2025-11-16 09:56</t>
+  </si>
+  <si>
+    <t>20251116082510593</t>
+  </si>
+  <si>
+    <t>2412005015</t>
+  </si>
+  <si>
+    <t>18.0091.0028</t>
+  </si>
+  <si>
+    <t>Chụp X-quang cột sống thắt lưng thẳng nghiêng [số hóa 1 phim]</t>
+  </si>
+  <si>
+    <t>2025-11-16 08:39</t>
+  </si>
+  <si>
+    <t>2025-11-16 08:41</t>
+  </si>
+  <si>
+    <t>2025-11-16 08:53</t>
+  </si>
+  <si>
+    <t>20251116070851543</t>
+  </si>
+  <si>
+    <t>2508017200</t>
+  </si>
+  <si>
+    <t>2025-11-16 07:17</t>
+  </si>
+  <si>
+    <t>2025-11-16 07:20</t>
+  </si>
+  <si>
+    <t>2025-11-16 07:32</t>
+  </si>
+  <si>
+    <t>20251116070747563</t>
+  </si>
+  <si>
+    <t>2501006987</t>
+  </si>
+  <si>
+    <t>18.0112.0029</t>
+  </si>
+  <si>
+    <t>Chụp X-quang khớp gối thẳng, nghiêng hoặc chếch [số hóa 2 phim]</t>
+  </si>
+  <si>
+    <t>2025-11-16 08:05</t>
+  </si>
+  <si>
+    <t>2025-11-16 08:06</t>
+  </si>
+  <si>
+    <t>2025-11-16 08:18</t>
   </si>
 </sst>
 </file>
@@ -134,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -142,14 +271,14 @@
   <cols>
     <col min="1" max="1" width="17.9296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.50390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.37109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.64453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.64453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.92578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="54.37109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.87109375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.9375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="15.11328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="9.6171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.11328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="15.11328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="58.45703125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="46.97265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -201,19 +330,243 @@
         <v>14</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>18</v>
+      <c r="J4" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_KCB_XML/errors_KCB.xlsx
+++ b/src/main/resources/data_KCB_XML/errors_KCB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>MaLK</t>
   </si>
@@ -44,25 +44,22 @@
     <t>Chi tiết lỗi</t>
   </si>
   <si>
-    <t>20251203073813697</t>
+    <t>20251216144300857</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>22.0120.1370</t>
-  </si>
-  <si>
-    <t>Tổng phân tích tế bào máu ngoại vi (bằng máy đếm tổng trở)</t>
-  </si>
-  <si>
-    <t>Thời gian DV Tổng phân tích tế bào máu ngoại vi (máy đếm tổng trở) lệch 73p, chuẩn 10-15</t>
-  </si>
-  <si>
-    <t>20251203070432727</t>
-  </si>
-  <si>
-    <t>Thời gian DV Tổng phân tích tế bào máu ngoại vi (máy đếm tổng trở) lệch 71p, chuẩn 10-15</t>
+    <t>02.03</t>
+  </si>
+  <si>
+    <t>Khám Nội tổng hợp</t>
+  </si>
+  <si>
+    <t>Thời gian DV Khám Nội tổng hợp lệch 4p, chuẩn 2-3</t>
+  </si>
+  <si>
+    <t>20251216082252700</t>
   </si>
 </sst>
 </file>
@@ -136,14 +133,14 @@
   <cols>
     <col min="1" max="1" width="17.9296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="6.49609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.92578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.62109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.50390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.796875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="7.39453125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.6171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="7.96875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="73.96484375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="42.23828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -239,7 +236,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_KCB_XML/errors_KCB.xlsx
+++ b/src/main/resources/data_KCB_XML/errors_KCB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>MaLK</t>
   </si>
@@ -42,24 +42,6 @@
   </si>
   <si>
     <t>Chi tiết lỗi</t>
-  </si>
-  <si>
-    <t>20251216144300857</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>02.03</t>
-  </si>
-  <si>
-    <t>Khám Nội tổng hợp</t>
-  </si>
-  <si>
-    <t>Thời gian DV Khám Nội tổng hợp lệch 4p, chuẩn 2-3</t>
-  </si>
-  <si>
-    <t>20251216082252700</t>
   </si>
 </sst>
 </file>
@@ -125,22 +107,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.9296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.55859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="6.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.50390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.5" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.83203125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.796875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="7.39453125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.6171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="7.96875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="42.23828125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="9.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -175,70 +157,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
